--- a/biology/Botanique/Olea_yuennanensis/Olea_yuennanensis.xlsx
+++ b/biology/Botanique/Olea_yuennanensis/Olea_yuennanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea yuennanensis est un végétal appartenant au genre Olea. C'est un arbuste ou un petit arbre qui peut atteindre de 1 à 12 m de hauteur et qui pousse en Chine. Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>O. yuennanensis var. xeromorpha Hand.-Mazz., op.cit. 1009 (1936) type Yunnan. (holotype WU).
 O. brevipes L.C. Chia (1955).
@@ -545,15 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste ou un arbre pouvant aller de 1 à 12 m de hauteur, avec des jeunes pousses pubérulentes, habituellement finement telles.  Les feuilles sont  coriaces, avec des pétioles qui ont entre 3 et 7 mm de longueur, finement pubérulents. Leur limbe est elliptique à oblong-elliptique ou ob-lancéolées, parfois élargies, glabres, de (3-)5 à 7(-10) cm de long et large de (1,2-)2 à 3,5(-4,5) cm de large, la base est aigüe, rarement obtuse, atténuée sur le pétiole, l'apex est aigu à rarement en pointe obtuse, parfois légèrement ou brutalement acuminée. Les bords sont entiers ou brusquement dentés, avec des dents de 0,5 à 5 mm de longueur. Il y a 6 nervures primaires de part et d'autre de la nervure centrale qui fait saillie en dessous, légèrement enfoncée ou obscure sur le dessus. La nervuration est d'autre part de couleur sombre.
-Appareil reproducteur
-Les inflorescences sont axillaires en cymes-paniculées, les fleurs regroupées en groupes sub-ombellés, de (1-)2 à 4(-8) cm de longueur, à fleurs abondantes sub-ombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long, glabres à très finement parsemées de pubérulences. Les pédicelles ont 1 à 5 mm de long. Le calice forme un tube de 0,5 mm de long, avec des lobes triangulaires de 0,5 mm  de long, glabres ou ciliés. La corolle est blanche à jaune-crème, en tube de 0,5 mm de long avec des lobes triangulaires de 0,5 mm de long, glabres ou ciliés. Les anthères mesurent de 1 à 3 mm de long, largement elliptiques-ovales, subsessiles. L'ovaire est avorté dans les fleurs mâles, subglobuleux dans les fleurs bisexuées, mesurant 1 mm de long portant un style de 0,5 mm de long  avec un stigmate  bilobé. Le fruit est une drupe légèrement charnue de couleur noire à maturité, largement ellipsoïde de 7 à 10 mm de long par 6 à 7 mm de large.
-Répartition géographique
-Cette espèce vit en Chine, dans le Sichuan. Un spécimen provient de la région de Te-Chang/Huang-Po-Lien (7 avril 1914). On le trouve aussi dans le Yunnan, au nord de Mengtze et autour du temple de Cao-Xi ainsi qu'à Anning (42 km de Kunming).
-Note comparative
-Cette espèce est très proche d'Olea brachiata. Il y a une légère tendance des feuilles dans les deux espèces à être plus longues et les dentelures marginales, quand elles sont présentes, à être plus rares, légèrement plus larges et émoussées.
-Les jeunes rameaux de cette espèce sont pubérulents, non glabres comme ceux d'Olea hainanensis. Ils sont aussi géographiquement séparés.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou un arbre pouvant aller de 1 à 12 m de hauteur, avec des jeunes pousses pubérulentes, habituellement finement telles.  Les feuilles sont  coriaces, avec des pétioles qui ont entre 3 et 7 mm de longueur, finement pubérulents. Leur limbe est elliptique à oblong-elliptique ou ob-lancéolées, parfois élargies, glabres, de (3-)5 à 7(-10) cm de long et large de (1,2-)2 à 3,5(-4,5) cm de large, la base est aigüe, rarement obtuse, atténuée sur le pétiole, l'apex est aigu à rarement en pointe obtuse, parfois légèrement ou brutalement acuminée. Les bords sont entiers ou brusquement dentés, avec des dents de 0,5 à 5 mm de longueur. Il y a 6 nervures primaires de part et d'autre de la nervure centrale qui fait saillie en dessous, légèrement enfoncée ou obscure sur le dessus. La nervuration est d'autre part de couleur sombre.
 </t>
         </is>
       </c>
@@ -579,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description botanique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est recherchée pour la confection de bonsaïs ou comme arbre d'ornement de parcs et jardins.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires en cymes-paniculées, les fleurs regroupées en groupes sub-ombellés, de (1-)2 à 4(-8) cm de longueur, à fleurs abondantes sub-ombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long, glabres à très finement parsemées de pubérulences. Les pédicelles ont 1 à 5 mm de long. Le calice forme un tube de 0,5 mm de long, avec des lobes triangulaires de 0,5 mm  de long, glabres ou ciliés. La corolle est blanche à jaune-crème, en tube de 0,5 mm de long avec des lobes triangulaires de 0,5 mm de long, glabres ou ciliés. Les anthères mesurent de 1 à 3 mm de long, largement elliptiques-ovales, subsessiles. L'ovaire est avorté dans les fleurs mâles, subglobuleux dans les fleurs bisexuées, mesurant 1 mm de long portant un style de 0,5 mm de long  avec un stigmate  bilobé. Le fruit est une drupe légèrement charnue de couleur noire à maturité, largement ellipsoïde de 7 à 10 mm de long par 6 à 7 mm de large.
 </t>
         </is>
       </c>
@@ -610,10 +628,120 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Chine, dans le Sichuan. Un spécimen provient de la région de Te-Chang/Huang-Po-Lien (7 avril 1914). On le trouve aussi dans le Yunnan, au nord de Mengtze et autour du temple de Cao-Xi ainsi qu'à Anning (42 km de Kunming).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_yuennanensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_yuennanensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Note comparative</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est très proche d'Olea brachiata. Il y a une légère tendance des feuilles dans les deux espèces à être plus longues et les dentelures marginales, quand elles sont présentes, à être plus rares, légèrement plus larges et émoussées.
+Les jeunes rameaux de cette espèce sont pubérulents, non glabres comme ceux d'Olea hainanensis. Ils sont aussi géographiquement séparés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_yuennanensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_yuennanensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est recherchée pour la confection de bonsaïs ou comme arbre d'ornement de parcs et jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_yuennanensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_yuennanensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
